--- a/results/species_ELH.xlsx
+++ b/results/species_ELH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\ELH_WestCoast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD801CA1-CB80-41AA-98A3-99940CDFBABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F515937D-CE9C-4775-9BED-603DD7556683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/species_ELH.xlsx
+++ b/results/species_ELH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\ELH_WestCoast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F515937D-CE9C-4775-9BED-603DD7556683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8CE4A-7846-4D8A-8EA2-F5B068501473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Spawn timing</t>
   </si>
@@ -96,27 +96,9 @@
     <t>Current size split</t>
   </si>
   <si>
-    <t>8 to 85</t>
-  </si>
-  <si>
-    <t>7 to 135</t>
-  </si>
-  <si>
-    <t>11 to 73</t>
-  </si>
-  <si>
-    <t>11 to 82</t>
-  </si>
-  <si>
-    <t>15 to 92</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Size in survey (mm)</t>
   </si>
   <si>
@@ -265,6 +247,24 @@
   </si>
   <si>
     <t>Could capture average velocity for Davidson and surface expression at some depth 2 months prior to the survey start</t>
+  </si>
+  <si>
+    <t>11 to 139</t>
+  </si>
+  <si>
+    <t>16 to 55</t>
+  </si>
+  <si>
+    <t>15 to 85</t>
+  </si>
+  <si>
+    <t>17 to 64</t>
+  </si>
+  <si>
+    <t>14 to 81</t>
+  </si>
+  <si>
+    <t>11 to 78</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +369,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,14 +659,14 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
     <col min="4" max="4" width="22.26953125" customWidth="1"/>
     <col min="5" max="5" width="26.6328125" customWidth="1"/>
     <col min="6" max="6" width="20.90625" customWidth="1"/>
@@ -668,7 +674,7 @@
     <col min="8" max="8" width="33.54296875" customWidth="1"/>
     <col min="9" max="9" width="26.08984375" customWidth="1"/>
     <col min="10" max="10" width="22.81640625" customWidth="1"/>
-    <col min="11" max="11" width="28.36328125" customWidth="1"/>
+    <col min="11" max="11" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
@@ -679,19 +685,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -706,51 +712,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5">
         <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" ht="42" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5">
         <v>35</v>
@@ -759,166 +765,166 @@
         <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="5">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5">
         <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="K6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="63" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="63" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -1003,47 +1009,47 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1074,7 +1080,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/results/species_ELH.xlsx
+++ b/results/species_ELH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\ELH_WestCoast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8CE4A-7846-4D8A-8EA2-F5B068501473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884FCAE-D8B9-4642-AF4D-8D06533D03F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,16 +255,16 @@
     <t>16 to 55</t>
   </si>
   <si>
-    <t>15 to 85</t>
-  </si>
-  <si>
     <t>17 to 64</t>
   </si>
   <si>
-    <t>14 to 81</t>
-  </si>
-  <si>
     <t>11 to 78</t>
+  </si>
+  <si>
+    <t>15 to 81</t>
+  </si>
+  <si>
+    <t>21 to 85</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5">
         <v>35</v>
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5">
         <v>31</v>
@@ -864,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5">
         <v>35</v>

--- a/results/species_ELH.xlsx
+++ b/results/species_ELH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\ELH_WestCoast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A884FCAE-D8B9-4642-AF4D-8D06533D03F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB0786A-775B-4647-AAE6-7B58FCA9C03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Life stages present</t>
   </si>
   <si>
-    <t>Common name</t>
-  </si>
-  <si>
     <t>Scientific name</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>21 to 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,25 +679,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -706,57 +706,57 @@
         <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="88" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5">
         <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5">
         <v>35</v>
@@ -765,166 +765,166 @@
         <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5">
         <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="5">
         <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5">
         <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="63" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5">
         <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -1009,47 +1009,47 @@
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/results/species_ELH.xlsx
+++ b/results/species_ELH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howar\Documents\Oregon State\ELH_WestCoast\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB0786A-775B-4647-AAE6-7B58FCA9C03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73EF5B-42DC-4F5B-989F-A8478EFD3233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
